--- a/ha-asset/01_design/91_エラーコード一覧.xlsx
+++ b/ha-asset/01_design/91_エラーコード一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AD0459-0017-42C4-B4AB-D209D6F01EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB031254-6447-4E57-AE50-D9D280518BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="60" windowWidth="22920" windowHeight="14625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="825" windowWidth="17160" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,23 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="Z_9C5975FA_2BBB_426C_A314_4AD02EB0E158_.wvu.FilterData" localSheetId="1" hidden="1">エラーコード一覧!$A$1:$H$58</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="フィルタ 1" guid="{9C5975FA-2BBB-426C-A314-4AD02EB0E158}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -53,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="156">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -74,12 +87,6 @@
   </si>
   <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>内部用エラーコード</t>
-  </si>
-  <si>
-    <t>外部用エラーコード</t>
   </si>
   <si>
     <t>カテゴリ</t>
@@ -274,19 +281,7 @@
     <t>AWS_S3_UPLOAD_ERROR</t>
   </si>
   <si>
-    <t>S3からのアップロード処理が失敗しました</t>
-  </si>
-  <si>
     <t>AWS_CLIENT_CONNECT_ERROR</t>
-  </si>
-  <si>
-    <t>AWSへの接続に失敗しました</t>
-  </si>
-  <si>
-    <t>SDK_CLIENT_CONNECT_ERROR</t>
-  </si>
-  <si>
-    <t>SDKによる接続に失敗しました</t>
   </si>
   <si>
     <t>MULTI_SUBMIT_ERROR</t>
@@ -313,16 +308,10 @@
     <t>API_500_CONNECT_ERROR</t>
   </si>
   <si>
-    <t>APIの通信に失敗しています。対向サーバに問題があります</t>
-  </si>
-  <si>
     <t>BREATHING_API_CONNECT_ERROR</t>
   </si>
   <si>
     <t>TOKEN_API_CONNECT_ERROR</t>
-  </si>
-  <si>
-    <t>健康情報計算API-肺活量計算APIの通信に失敗しました</t>
   </si>
   <si>
     <t>健康情報計算API-基礎健康情報計算APIの通信に失敗しました</t>
@@ -379,10 +368,6 @@
   </si>
   <si>
     <t>AWSへの接続に失敗しました</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>SDKによる接続に失敗しました</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -498,29 +483,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>健康情報計算API-Token発行APIの通信に失敗しました</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>健康管理API-健康情報登録APIの通信に失敗しました</t>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ケンコウジョウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツウシン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>AWS_S3_DOWNLOAD_ERROR</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -557,6 +519,201 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AWS_SQS_ENQUEUE_ERROR</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AWS_SQS_POLL_ERROR</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SQSへキューの取得に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SQSへキューの登録に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AWSコンソールからSQSの設定を見直してください。</t>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>健康管理API-健康情報登録APIの通信に失敗しました。</t>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>健康情報計算API-Token発行APIの通信に失敗しました。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>健康情報計算API-肺活量計算APIの通信に失敗しました。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>APIの通信に失敗しています。対向サーバに問題があります。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>logからqueueURLを確認してください。</t>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SQSへキューの削除に失敗しました</t>
+  </si>
+  <si>
+    <t>AWS_SQS_ACK_ERROR</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AWS_S3_DELETE_ERROR</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>S3ファイルの削除に失敗しました</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>S3オブジェクトが存在するかAWSコンソールから確認してください。</t>
+    <rPh sb="9" eb="11">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>実装に合わせ最新化</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>外部用
+エラーコード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>内部用
+エラーコード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>USER_REGIST_ERROR</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザの作成に失敗しました</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>error.logから確認してください。</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AWSへの接続に失敗しました。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>S3からのアップロード処理が失敗しました。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面で複数回送信ボタンを押下のため（ユーザの不正操作）</t>
+    <rPh sb="22" eb="24">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>USER_UPDATE_ERROR</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ユーザの更新に失敗しました</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MAIL_TEMPLATE_REQUIED_ERROR</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>メール送信に失敗しました</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>mail_templateの指定が正しくない。Error.logから確認してください。</t>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -722,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -744,26 +901,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -779,7 +916,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -847,9 +1009,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -887,7 +1049,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -993,7 +1155,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1135,7 +1297,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1149,7 +1311,8 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -1219,681 +1382,688 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="14" t="s">
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="11"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="16"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="15">
+      <c r="B4" s="19">
         <v>44030</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="16" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="9" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="11"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="16"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="16.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="11"/>
+      <c r="B5" s="21">
+        <v>45958</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17">
+        <f>F4+0.01</f>
+        <v>1.01</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="16"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="11"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="2"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="16"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="16"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="2"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="16"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="2"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="11"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="16"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="2"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="11"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="16"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="2"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="16"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="16"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="16"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="16"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="16"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="2"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="16"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="16"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="2"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="16"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="16"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="16"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="16"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="16"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="2"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="16"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="16"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="16.5">
@@ -1956,6 +2126,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1965,66 +2195,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2039,16 +2209,16 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="51.7109375" style="6" customWidth="1"/>
@@ -2056,1350 +2226,1410 @@
     <col min="9" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="17">
+    </row>
+    <row r="2" spans="1:8" s="22" customFormat="1">
+      <c r="A2" s="9">
         <f>ROW()-ROW($A$1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="19" t="str">
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11" t="str">
         <f>IF(B2="","",D2&amp;E2&amp;TEXT(A2,"0000"))</f>
         <v>CE0001</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="17">
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" s="22" customFormat="1">
+      <c r="A3" s="9">
         <f t="shared" ref="A3:A58" si="0">ROW()-ROW($A$1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19" t="str">
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11" t="str">
         <f t="shared" ref="C3:C58" si="1">IF(B3="","",D3&amp;E3&amp;TEXT(A3,"0000"))</f>
         <v>CE0002</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>15</v>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="17">
+        <v>16</v>
+      </c>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" s="22" customFormat="1">
+      <c r="A4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="19" t="str">
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CE0003</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>15</v>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17">
+        <v>18</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1">
+      <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="19" t="str">
+      <c r="B5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="str">
         <f>IF(B5="","",D5&amp;E5&amp;TEXT(A5,"0000"))</f>
         <v>CE0004</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>15</v>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="17">
+        <v>20</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="19" t="str">
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CE0005</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>15</v>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="17">
+        <v>22</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" s="22" customFormat="1">
+      <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="19" t="str">
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CE0006</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>15</v>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="17">
+        <v>24</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="19" t="str">
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CE0007</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>15</v>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="17">
+        <v>26</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="19" t="str">
+      <c r="B9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CE0008</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>15</v>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="17">
+        <v>28</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="19" t="str">
+      <c r="B10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CW0009</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>32</v>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="17">
+        <v>31</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="19" t="str">
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CW0010</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>32</v>
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="17">
+        <v>33</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="19" t="str">
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CW0011</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>32</v>
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="17">
+        <v>35</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="19" t="str">
+      <c r="B13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CW0012</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>32</v>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="17">
+        <v>37</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="19" t="str">
+      <c r="B14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CW0013</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>32</v>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="17">
+        <v>39</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" s="22" customFormat="1">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="19" t="str">
+      <c r="B15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CW0014</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>32</v>
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="17">
+        <v>41</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1">
+      <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="19" t="str">
+      <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CW0015</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>32</v>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="17">
+        <v>43</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1">
+      <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="19" t="str">
+      <c r="B17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CW0016</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>32</v>
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="17">
+        <v>45</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1">
+      <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="19" t="str">
+      <c r="B18" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CW0017</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>32</v>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="17">
+        <v>47</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1">
+      <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="19" t="str">
+      <c r="B19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>AE0018</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>15</v>
+      <c r="D19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="17">
+        <v>50</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="19" t="str">
+      <c r="B20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="11" t="str">
         <f t="shared" si="1"/>
         <v>AW0019</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>32</v>
+      <c r="D20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="17">
+        <v>52</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="19" t="str">
+      <c r="B21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="11" t="str">
         <f t="shared" si="1"/>
         <v>AW0020</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>32</v>
+      <c r="D21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="17">
+        <v>54</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1">
+      <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="19" t="str">
+      <c r="B22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="11" t="str">
         <f t="shared" si="1"/>
         <v>DW0021</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>32</v>
+      <c r="D22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="17">
+        <v>57</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" s="22" customFormat="1">
+      <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="19" t="str">
+      <c r="B23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="11" t="str">
         <f t="shared" si="1"/>
         <v>DW0022</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>32</v>
+      <c r="D23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="17">
+        <v>59</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" s="22" customFormat="1">
+      <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="19" t="str">
+      <c r="B24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11" t="str">
         <f t="shared" si="1"/>
         <v>DW0023</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>32</v>
+      <c r="D24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="17">
+        <v>61</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" s="22" customFormat="1">
+      <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="19" t="str">
+      <c r="B25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="11" t="str">
         <f t="shared" si="1"/>
         <v>DW0024</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>32</v>
+      <c r="D25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="17">
+        <v>63</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" s="22" customFormat="1">
+      <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="19" t="str">
+      <c r="B26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>DW0025</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>32</v>
+      <c r="D26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="17">
+        <v>65</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1">
+      <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="19" t="str">
+      <c r="B27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="11" t="str">
         <f t="shared" si="1"/>
         <v>DW0026</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>32</v>
+      <c r="D27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="17">
+        <v>67</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1">
+      <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="19" t="str">
+      <c r="B28" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BE0027</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>15</v>
+      <c r="D28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="17">
+        <v>69</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1">
+      <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="19" t="str">
+      <c r="B29" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BE0028</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>15</v>
+      <c r="D29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="17">
+        <v>149</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1">
+      <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="19" t="str">
+      <c r="B30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BE0029</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>15</v>
+      <c r="D30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="17">
+        <v>148</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" s="22" customFormat="1">
+      <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="19" t="str">
+      <c r="B31" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BE0030</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>15</v>
+      <c r="D31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="17">
+        <v>147</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" s="22" customFormat="1">
+      <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="19" t="str">
+      <c r="B32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="11" t="str">
         <f t="shared" si="1"/>
         <v>DW0031</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>32</v>
+      <c r="D32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="33">
-      <c r="A33" s="17">
+        <v>150</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" s="22" customFormat="1" ht="33">
+      <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="19" t="str">
+      <c r="B33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="11" t="str">
         <f>IF(B33="","",D33&amp;E33&amp;TEXT(A33,"0000"))</f>
         <v>BE0032</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>15</v>
+      <c r="D33" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="17">
+        <v>82</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" s="22" customFormat="1">
+      <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="19" t="str">
+      <c r="B34" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BE0033</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>15</v>
+      <c r="D34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:8" ht="33">
-      <c r="A35" s="17">
+        <v>83</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" s="22" customFormat="1" ht="33">
+      <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="19" t="str">
+      <c r="B35" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BE0034</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>15</v>
+      <c r="D35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" ht="33">
-      <c r="A36" s="17">
+        <v>76</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" s="22" customFormat="1" ht="33">
+      <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="19" t="str">
+      <c r="B36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CE0035</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>15</v>
+      <c r="D36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" ht="33">
-      <c r="A37" s="17">
+        <v>78</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="33">
+      <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="19" t="str">
+      <c r="B37" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CE0036</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>15</v>
+      <c r="D37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="17">
+        <v>135</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" s="22" customFormat="1">
+      <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="19" t="str">
+      <c r="B38" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BE0037</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>15</v>
+      <c r="D38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="17">
+        <v>134</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1">
+      <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="19" t="str">
+      <c r="B39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BE0038</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>15</v>
+      <c r="D39" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="17">
+        <v>133</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1">
+      <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="19" t="str">
+      <c r="B40" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="11" t="str">
         <f t="shared" si="1"/>
         <v>BE0039</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>15</v>
+      <c r="D40" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" ht="33">
-      <c r="A41" s="17">
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" s="22" customFormat="1" ht="33">
+      <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="19" t="str">
+      <c r="B41" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="11" t="str">
         <f t="shared" si="1"/>
         <v>CW0040</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>32</v>
+      <c r="D41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="17">
+        <v>126</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8" s="22" customFormat="1">
+      <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="19" t="str">
+      <c r="B42" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>BE0041</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" s="22" customFormat="1">
+      <c r="A43" s="9">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="11" t="str">
+        <f>IF(B43="","",D43&amp;E43&amp;TEXT(A43,"0000"))</f>
+        <v>BE0042</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" s="22" customFormat="1">
+      <c r="A44" s="9">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>BE0043</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" s="22" customFormat="1" ht="33">
+      <c r="A45" s="9">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>BE0044</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" s="22" customFormat="1">
+      <c r="A46" s="9">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="11" t="str">
+        <f t="shared" ref="C46" si="2">IF(B46="","",D46&amp;E46&amp;TEXT(A46,"0000"))</f>
+        <v>BE0045</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" s="22" customFormat="1" ht="33">
+      <c r="A47" s="9">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>BE0046</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" s="22" customFormat="1">
+      <c r="A48" s="9">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="17">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" s="22" customFormat="1">
+      <c r="A49" s="9">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="19" t="str">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="17">
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" s="22" customFormat="1">
+      <c r="A50" s="9">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="19" t="str">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="17">
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" s="22" customFormat="1">
+      <c r="A51" s="9">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="19" t="str">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="17">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" s="22" customFormat="1">
+      <c r="A52" s="9">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="19" t="str">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="17">
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" s="22" customFormat="1">
+      <c r="A53" s="9">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="19" t="str">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="17">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" s="22" customFormat="1">
+      <c r="A54" s="9">
         <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="19" t="str">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="21"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="17">
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" s="22" customFormat="1">
+      <c r="A55" s="9">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="19" t="str">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="17">
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" s="22" customFormat="1">
+      <c r="A56" s="9">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="19" t="str">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="21"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="17">
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" s="22" customFormat="1">
+      <c r="A57" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="19" t="str">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="21"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="17">
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" s="22" customFormat="1">
+      <c r="A58" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="19" t="str">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="21"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="17">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="21"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="17">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="21"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="17">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="21"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="17">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="21"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="17">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="21"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="17">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="21"/>
+      <c r="H58" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H58" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
     <customSheetView guid="{9C5975FA-2BBB-426C-A314-4AD02EB0E158}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:G48" xr:uid="{42047FD3-2816-41F2-8F46-B3DCBECEE845}"/>
+      <autoFilter ref="A1:G48" xr:uid="{B7B5D288-A72B-447C-A754-E906056926C0}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5"/>
@@ -3466,10 +3696,10 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -3498,10 +3728,10 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3530,10 +3760,10 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3562,7 +3792,7 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3592,7 +3822,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>

--- a/ha-asset/01_design/91_エラーコード一覧.xlsx
+++ b/ha-asset/01_design/91_エラーコード一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB031254-6447-4E57-AE50-D9D280518BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CADCAC2-E80F-44FE-82CF-E239E0140A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="825" windowWidth="17160" windowHeight="14295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="615" windowWidth="26760" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -717,6 +717,39 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>Systems Managerから値の取得に失敗しました</t>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Systems Managerに値が設定されていない可能性があります。AWS Consoleを確認してください。</t>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>AWS_SSM_GET_ERROR</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -916,11 +949,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -932,15 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,688 +1415,688 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="18" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="18"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="19">
+      <c r="B4" s="22">
         <v>44030</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="14" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="18"/>
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="16.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>45958</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="20">
         <f>F4+0.01</f>
         <v>1.01</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="14" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="18"/>
       <c r="AA5" s="2"/>
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="18"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="2"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="18"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="2"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="18"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="2"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="18"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="2"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="18"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="2"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="18"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="2"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="18"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="2"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="18"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="2"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="18"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="18"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="2"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="18"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="2"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="18"/>
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="18"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="2"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="18"/>
       <c r="AA19" s="2"/>
     </row>
     <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="2"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="18"/>
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="2"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="18"/>
       <c r="AA21" s="2"/>
     </row>
     <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="2"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="18"/>
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="2"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="18"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="2"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="18"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="2"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="18"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="16.5">
@@ -2126,12 +2159,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -2141,60 +2222,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2210,8 +2243,8 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2252,7 +2285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1">
+    <row r="2" spans="1:8" s="14" customFormat="1">
       <c r="A2" s="9">
         <f>ROW()-ROW($A$1)</f>
         <v>1</v>
@@ -2278,7 +2311,7 @@
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" s="22" customFormat="1">
+    <row r="3" spans="1:8" s="14" customFormat="1">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A58" si="0">ROW()-ROW($A$1)</f>
         <v>2</v>
@@ -2304,7 +2337,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" s="22" customFormat="1">
+    <row r="4" spans="1:8" s="14" customFormat="1">
       <c r="A4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2330,7 +2363,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" s="22" customFormat="1">
+    <row r="5" spans="1:8" s="14" customFormat="1">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2356,7 +2389,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8" s="22" customFormat="1">
+    <row r="6" spans="1:8" s="14" customFormat="1">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2382,7 +2415,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1">
+    <row r="7" spans="1:8" s="14" customFormat="1">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2408,7 +2441,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" s="22" customFormat="1">
+    <row r="8" spans="1:8" s="14" customFormat="1">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2434,7 +2467,7 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" s="22" customFormat="1">
+    <row r="9" spans="1:8" s="14" customFormat="1">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2460,7 +2493,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="14" customFormat="1">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2486,7 +2519,7 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" s="22" customFormat="1">
+    <row r="11" spans="1:8" s="14" customFormat="1">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2512,7 +2545,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1">
+    <row r="12" spans="1:8" s="14" customFormat="1">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2538,7 +2571,7 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1">
+    <row r="13" spans="1:8" s="14" customFormat="1">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2564,7 +2597,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" s="22" customFormat="1">
+    <row r="14" spans="1:8" s="14" customFormat="1">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2590,7 +2623,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" s="22" customFormat="1">
+    <row r="15" spans="1:8" s="14" customFormat="1">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2616,7 +2649,7 @@
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" s="22" customFormat="1">
+    <row r="16" spans="1:8" s="14" customFormat="1">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2642,7 +2675,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" s="22" customFormat="1">
+    <row r="17" spans="1:8" s="14" customFormat="1">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2668,7 +2701,7 @@
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" s="22" customFormat="1">
+    <row r="18" spans="1:8" s="14" customFormat="1">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2694,7 +2727,7 @@
       </c>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="14" customFormat="1">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2720,7 +2753,7 @@
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1">
+    <row r="20" spans="1:8" s="14" customFormat="1">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2746,7 +2779,7 @@
       </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" s="22" customFormat="1">
+    <row r="21" spans="1:8" s="14" customFormat="1">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2772,7 +2805,7 @@
       </c>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" s="22" customFormat="1">
+    <row r="22" spans="1:8" s="14" customFormat="1">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2798,7 +2831,7 @@
       </c>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" s="22" customFormat="1">
+    <row r="23" spans="1:8" s="14" customFormat="1">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2824,7 +2857,7 @@
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" s="22" customFormat="1">
+    <row r="24" spans="1:8" s="14" customFormat="1">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2850,7 +2883,7 @@
       </c>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" s="22" customFormat="1">
+    <row r="25" spans="1:8" s="14" customFormat="1">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2876,7 +2909,7 @@
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" s="22" customFormat="1">
+    <row r="26" spans="1:8" s="14" customFormat="1">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2902,7 +2935,7 @@
       </c>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" s="22" customFormat="1">
+    <row r="27" spans="1:8" s="14" customFormat="1">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2928,7 +2961,7 @@
       </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="14" customFormat="1">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2937,11 +2970,11 @@
         <v>122</v>
       </c>
       <c r="C28" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>BE0027</v>
+        <f>IF(B28="","",D28&amp;E28&amp;TEXT(A28,"0000"))</f>
+        <v>CE0027</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>13</v>
@@ -2954,7 +2987,7 @@
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" s="22" customFormat="1">
+    <row r="29" spans="1:8" s="14" customFormat="1">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2964,10 +2997,10 @@
       </c>
       <c r="C29" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>BE0028</v>
+        <v>CE0028</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>13</v>
@@ -2980,7 +3013,7 @@
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" s="22" customFormat="1">
+    <row r="30" spans="1:8" s="14" customFormat="1">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2990,10 +3023,10 @@
       </c>
       <c r="C30" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>BE0029</v>
+        <v>CE0029</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>13</v>
@@ -3006,7 +3039,7 @@
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" s="22" customFormat="1">
+    <row r="31" spans="1:8" s="14" customFormat="1">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3032,7 +3065,7 @@
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" s="22" customFormat="1">
+    <row r="32" spans="1:8" s="14" customFormat="1">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3058,7 +3091,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" s="22" customFormat="1" ht="33">
+    <row r="33" spans="1:8" s="14" customFormat="1" ht="33">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3084,7 +3117,7 @@
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" s="22" customFormat="1">
+    <row r="34" spans="1:8" s="14" customFormat="1">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3110,7 +3143,7 @@
       </c>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" s="22" customFormat="1" ht="33">
+    <row r="35" spans="1:8" s="14" customFormat="1" ht="33">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3120,10 +3153,10 @@
       </c>
       <c r="C35" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>BE0034</v>
+        <v>CE0034</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>13</v>
@@ -3136,7 +3169,7 @@
       </c>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" s="22" customFormat="1" ht="33">
+    <row r="36" spans="1:8" s="14" customFormat="1" ht="33">
       <c r="A36" s="9">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3162,7 +3195,7 @@
       </c>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="33">
+    <row r="37" spans="1:8" s="14" customFormat="1" ht="33">
       <c r="A37" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3188,7 +3221,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" s="22" customFormat="1">
+    <row r="38" spans="1:8" s="14" customFormat="1">
       <c r="A38" s="9">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3214,7 +3247,7 @@
       </c>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" s="22" customFormat="1">
+    <row r="39" spans="1:8" s="14" customFormat="1">
       <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3240,7 +3273,7 @@
       </c>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" s="22" customFormat="1">
+    <row r="40" spans="1:8" s="14" customFormat="1">
       <c r="A40" s="9">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3266,12 +3299,12 @@
       </c>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" s="22" customFormat="1" ht="33">
+    <row r="41" spans="1:8" s="14" customFormat="1" ht="33">
       <c r="A41" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C41" s="11" t="str">
@@ -3292,7 +3325,7 @@
       </c>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" s="22" customFormat="1">
+    <row r="42" spans="1:8" s="14" customFormat="1">
       <c r="A42" s="9">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3302,10 +3335,10 @@
       </c>
       <c r="C42" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>BE0041</v>
+        <v>CE0041</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>13</v>
@@ -3318,7 +3351,7 @@
       </c>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" s="22" customFormat="1">
+    <row r="43" spans="1:8" s="14" customFormat="1">
       <c r="A43" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3328,10 +3361,10 @@
       </c>
       <c r="C43" s="11" t="str">
         <f>IF(B43="","",D43&amp;E43&amp;TEXT(A43,"0000"))</f>
-        <v>BE0042</v>
+        <v>CE0042</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>13</v>
@@ -3344,7 +3377,7 @@
       </c>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" s="22" customFormat="1">
+    <row r="44" spans="1:8" s="14" customFormat="1">
       <c r="A44" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3354,10 +3387,10 @@
       </c>
       <c r="C44" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>BE0043</v>
+        <v>CE0043</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>13</v>
@@ -3370,7 +3403,7 @@
       </c>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" s="22" customFormat="1" ht="33">
+    <row r="45" spans="1:8" s="14" customFormat="1" ht="33">
       <c r="A45" s="9">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3380,10 +3413,10 @@
       </c>
       <c r="C45" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>BE0044</v>
+        <v>CE0044</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>13</v>
@@ -3396,7 +3429,7 @@
       </c>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" s="22" customFormat="1">
+    <row r="46" spans="1:8" s="14" customFormat="1">
       <c r="A46" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3422,7 +3455,7 @@
       </c>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" s="22" customFormat="1" ht="33">
+    <row r="47" spans="1:8" s="14" customFormat="1" ht="33">
       <c r="A47" s="9">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3432,10 +3465,10 @@
       </c>
       <c r="C47" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>BE0046</v>
+        <v>CE0046</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>13</v>
@@ -3448,23 +3481,33 @@
       </c>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" s="22" customFormat="1">
+    <row r="48" spans="1:8" s="14" customFormat="1" ht="33">
       <c r="A48" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="13"/>
+      <c r="B48" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="C48" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+        <f>IF(B48="","",D48&amp;E48&amp;TEXT(A48,"0000"))</f>
+        <v>CE0047</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>157</v>
+      </c>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" s="22" customFormat="1">
+    <row r="49" spans="1:8" s="14" customFormat="1">
       <c r="A49" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3480,7 +3523,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" s="22" customFormat="1">
+    <row r="50" spans="1:8" s="14" customFormat="1">
       <c r="A50" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3496,7 +3539,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" s="22" customFormat="1">
+    <row r="51" spans="1:8" s="14" customFormat="1">
       <c r="A51" s="9">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3512,7 +3555,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" s="22" customFormat="1">
+    <row r="52" spans="1:8" s="14" customFormat="1">
       <c r="A52" s="9">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3528,7 +3571,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" s="22" customFormat="1">
+    <row r="53" spans="1:8" s="14" customFormat="1">
       <c r="A53" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3544,7 +3587,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" s="22" customFormat="1">
+    <row r="54" spans="1:8" s="14" customFormat="1">
       <c r="A54" s="9">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3560,7 +3603,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" s="22" customFormat="1">
+    <row r="55" spans="1:8" s="14" customFormat="1">
       <c r="A55" s="9">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3576,7 +3619,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" s="22" customFormat="1">
+    <row r="56" spans="1:8" s="14" customFormat="1">
       <c r="A56" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3592,7 +3635,7 @@
       <c r="G56" s="7"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" s="22" customFormat="1">
+    <row r="57" spans="1:8" s="14" customFormat="1">
       <c r="A57" s="9">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3608,7 +3651,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8" s="22" customFormat="1">
+    <row r="58" spans="1:8" s="14" customFormat="1">
       <c r="A58" s="9">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3629,7 +3672,7 @@
   <customSheetViews>
     <customSheetView guid="{9C5975FA-2BBB-426C-A314-4AD02EB0E158}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:G48" xr:uid="{B7B5D288-A72B-447C-A754-E906056926C0}"/>
+      <autoFilter ref="A1:G48" xr:uid="{7643A2B8-FA14-4126-A128-21B41CBF9567}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5"/>

--- a/ha-asset/01_design/91_エラーコード一覧.xlsx
+++ b/ha-asset/01_design/91_エラーコード一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CADCAC2-E80F-44FE-82CF-E239E0140A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC69EA7E-E42F-4301-A25D-43B6FA9B54B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="615" windowWidth="26760" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="60" windowWidth="17970" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="159">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -960,9 +960,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -974,6 +971,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,9 +1343,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -1415,19 +1415,19 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="17"/>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>44030</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="17"/>
@@ -1485,14 +1485,14 @@
     </row>
     <row r="5" spans="1:27" ht="16.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="19">
+      <c r="B5" s="23">
         <v>45958</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="20">
-        <f>F4+0.01</f>
+      <c r="F5" s="19">
+        <f>IF(B5="","",F4+0.01)</f>
         <v>1.01</v>
       </c>
       <c r="G5" s="17"/>
@@ -1521,15 +1521,22 @@
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23">
+        <v>46026</v>
+      </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="19">
+        <f>IF(B6="","",F5+0.01)</f>
+        <v>1.02</v>
+      </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="16"/>
+      <c r="J6" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -1554,7 +1561,10 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="19" t="str">
+        <f t="shared" ref="F7:F25" si="0">IF(B7="","",F6+0.01)</f>
+        <v/>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="18"/>
@@ -1583,7 +1593,10 @@
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
@@ -1612,7 +1625,10 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="18"/>
@@ -1641,7 +1657,10 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="16"/>
+      <c r="F10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="18"/>
@@ -1670,7 +1689,10 @@
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="16"/>
+      <c r="F11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="18"/>
@@ -1699,7 +1721,10 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
+      <c r="F12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="18"/>
@@ -1728,7 +1753,10 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
@@ -1757,7 +1785,10 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
@@ -1786,7 +1817,10 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="16"/>
+      <c r="F15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="18"/>
@@ -1815,7 +1849,10 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="16"/>
+      <c r="F16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="18"/>
@@ -1844,7 +1881,10 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="18"/>
@@ -1873,7 +1913,10 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="18"/>
@@ -1902,7 +1945,10 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="16"/>
+      <c r="F19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="18"/>
@@ -1931,7 +1977,10 @@
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="18"/>
@@ -1960,7 +2009,10 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
@@ -1989,7 +2041,10 @@
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="16"/>
+      <c r="F22" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
@@ -2018,7 +2073,10 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="16"/>
+      <c r="F23" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="18"/>
@@ -2047,7 +2105,10 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="18"/>
@@ -2076,7 +2137,10 @@
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="16"/>
+      <c r="F25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="18"/>
@@ -2159,6 +2223,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2168,66 +2292,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2242,9 +2306,9 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="16.5"/>
@@ -2252,8 +2316,8 @@
     <col min="1" max="1" width="5.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="6" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="51.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="57.28515625" style="6" customWidth="1"/>
     <col min="9" max="16384" width="14.42578125" style="6"/>
@@ -3672,7 +3736,7 @@
   <customSheetViews>
     <customSheetView guid="{9C5975FA-2BBB-426C-A314-4AD02EB0E158}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:G48" xr:uid="{7643A2B8-FA14-4126-A128-21B41CBF9567}"/>
+      <autoFilter ref="A1:G48" xr:uid="{54E853C7-A6A6-4648-A87A-6C1F3C3C01B4}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="5"/>
